--- a/sandbox/DataSurveyResponses.xlsx
+++ b/sandbox/DataSurveyResponses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DMIT\DataSurvey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DMIT\DataSurvey\sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90D514F3-B67B-4D6B-9E9D-4F83C13143E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A623F210-8477-4C57-ADEA-769F240D498F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52604209-A770-41B7-BF34-70ADE335855C}"/>
+    <workbookView xWindow="8820" yWindow="3540" windowWidth="15330" windowHeight="10890" xr2:uid="{52604209-A770-41B7-BF34-70ADE335855C}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="173">
   <si>
     <t>Question</t>
   </si>
@@ -184,9 +184,6 @@
     <t>6b</t>
   </si>
   <si>
-    <t>[How do you use other non-Water Board data sources]</t>
-  </si>
-  <si>
     <t>Please answer the following questions about data-related tasks:</t>
   </si>
   <si>
@@ -548,6 +545,12 @@
   </si>
   <si>
     <t>A12</t>
+  </si>
+  <si>
+    <t>Are you interested in taking data science courses offered by the Water Boards Training Academy?</t>
+  </si>
+  <si>
+    <t>How do you use other non-Water Board data sources</t>
   </si>
 </sst>
 </file>
@@ -914,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C07683B-E231-48F5-922C-14B340119230}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +930,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -936,40 +939,40 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -1319,7 +1322,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1334,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="b">
         <v>1</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1365,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1373,10 +1376,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1399,10 +1402,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1422,10 +1425,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1445,10 +1448,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1471,10 +1474,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1494,10 +1497,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1517,10 +1520,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1543,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1566,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1589,10 +1592,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1615,10 +1618,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1638,10 +1641,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1661,10 +1664,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1687,10 +1690,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1710,10 +1713,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1733,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1759,10 +1762,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1782,10 +1785,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1805,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1831,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1854,10 +1857,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1877,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1900,10 +1903,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1923,10 +1926,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1946,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1969,10 +1972,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1992,10 +1995,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2015,10 +2018,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2038,10 +2041,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2061,10 +2064,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2084,10 +2087,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2107,10 +2110,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2130,10 +2133,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2153,10 +2156,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2176,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2199,10 +2202,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2222,10 +2225,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2245,10 +2248,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2268,10 +2271,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2291,10 +2294,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2314,10 +2317,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D60" t="s">
         <v>26</v>
@@ -2328,10 +2331,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D61" t="s">
         <v>26</v>
@@ -2362,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
         <v>139</v>
-      </c>
-      <c r="C1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2376,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2387,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2398,7 +2401,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2409,7 +2412,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2420,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2431,7 +2434,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2442,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2453,238 +2456,238 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
